--- a/data_regression.xlsx
+++ b/data_regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Lomba Big Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Lomba Big Data\hunger-fighter_big-data-binus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028E415F-9FDE-40D0-9739-851F5F4FE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A0E7E-DD4E-415A-81C8-8A0A1F6CB10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="396" windowWidth="13200" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
   <si>
     <t>tanggal</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Papua</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>luas_panen_padi</t>
   </si>
   <si>
@@ -157,6 +154,516 @@
   </si>
   <si>
     <t>bawang_merah</t>
+  </si>
+  <si>
+    <t>11744.96</t>
+  </si>
+  <si>
+    <t>18091.36</t>
+  </si>
+  <si>
+    <t>6045.93</t>
+  </si>
+  <si>
+    <t>1864.13</t>
+  </si>
+  <si>
+    <t>4977.93</t>
+  </si>
+  <si>
+    <t>14228.98</t>
+  </si>
+  <si>
+    <t>747.85</t>
+  </si>
+  <si>
+    <t>6671.62</t>
+  </si>
+  <si>
+    <t>639.66</t>
+  </si>
+  <si>
+    <t>129.33</t>
+  </si>
+  <si>
+    <t>137.45</t>
+  </si>
+  <si>
+    <t>66916.80</t>
+  </si>
+  <si>
+    <t>38686.28</t>
+  </si>
+  <si>
+    <t>2667.06</t>
+  </si>
+  <si>
+    <t>40998.05</t>
+  </si>
+  <si>
+    <t>7225.01</t>
+  </si>
+  <si>
+    <t>1601.85</t>
+  </si>
+  <si>
+    <t>5198.87</t>
+  </si>
+  <si>
+    <t>1529.80</t>
+  </si>
+  <si>
+    <t>2801.24</t>
+  </si>
+  <si>
+    <t>1654.01</t>
+  </si>
+  <si>
+    <t>29352.42</t>
+  </si>
+  <si>
+    <t>1602.14</t>
+  </si>
+  <si>
+    <t>176.22</t>
+  </si>
+  <si>
+    <t>1229.04</t>
+  </si>
+  <si>
+    <t>5861.79</t>
+  </si>
+  <si>
+    <t>54980.08</t>
+  </si>
+  <si>
+    <t>3537.19</t>
+  </si>
+  <si>
+    <t>507.29</t>
+  </si>
+  <si>
+    <t>2470.10</t>
+  </si>
+  <si>
+    <t>2210.08</t>
+  </si>
+  <si>
+    <t>554.32</t>
+  </si>
+  <si>
+    <t>621.46</t>
+  </si>
+  <si>
+    <t>847.28</t>
+  </si>
+  <si>
+    <t>7508.05</t>
+  </si>
+  <si>
+    <t>15729.99</t>
+  </si>
+  <si>
+    <t>6278.92</t>
+  </si>
+  <si>
+    <t>1733.91</t>
+  </si>
+  <si>
+    <t>4483.49</t>
+  </si>
+  <si>
+    <t>15812.64</t>
+  </si>
+  <si>
+    <t>1415.93</t>
+  </si>
+  <si>
+    <t>6799.18</t>
+  </si>
+  <si>
+    <t>467.12</t>
+  </si>
+  <si>
+    <t>210.59</t>
+  </si>
+  <si>
+    <t>59.81</t>
+  </si>
+  <si>
+    <t>68891.80</t>
+  </si>
+  <si>
+    <t>38939.29</t>
+  </si>
+  <si>
+    <t>2634.57</t>
+  </si>
+  <si>
+    <t>42119.15</t>
+  </si>
+  <si>
+    <t>12343.00</t>
+  </si>
+  <si>
+    <t>1854.72</t>
+  </si>
+  <si>
+    <t>5506.71</t>
+  </si>
+  <si>
+    <t>1244.78</t>
+  </si>
+  <si>
+    <t>2619.94</t>
+  </si>
+  <si>
+    <t>1671.69</t>
+  </si>
+  <si>
+    <t>33217.42</t>
+  </si>
+  <si>
+    <t>1633.67</t>
+  </si>
+  <si>
+    <t>197.77</t>
+  </si>
+  <si>
+    <t>1250.91</t>
+  </si>
+  <si>
+    <t>7896.55</t>
+  </si>
+  <si>
+    <t>36141.56</t>
+  </si>
+  <si>
+    <t>3727.84</t>
+  </si>
+  <si>
+    <t>524.52</t>
+  </si>
+  <si>
+    <t>2224.24</t>
+  </si>
+  <si>
+    <t>1322.10</t>
+  </si>
+  <si>
+    <t>686.01</t>
+  </si>
+  <si>
+    <t>591.70</t>
+  </si>
+  <si>
+    <t>946.95</t>
+  </si>
+  <si>
+    <t>9649.87</t>
+  </si>
+  <si>
+    <t>15737.50</t>
+  </si>
+  <si>
+    <t>6419.96</t>
+  </si>
+  <si>
+    <t>1538.25</t>
+  </si>
+  <si>
+    <t>4573.03</t>
+  </si>
+  <si>
+    <t>16913.05</t>
+  </si>
+  <si>
+    <t>1394.50</t>
+  </si>
+  <si>
+    <t>6892.99</t>
+  </si>
+  <si>
+    <t>587.97</t>
+  </si>
+  <si>
+    <t>289.52</t>
+  </si>
+  <si>
+    <t>81.61</t>
+  </si>
+  <si>
+    <t>73406.49</t>
+  </si>
+  <si>
+    <t>39655.15</t>
+  </si>
+  <si>
+    <t>2870.38</t>
+  </si>
+  <si>
+    <t>44043.55</t>
+  </si>
+  <si>
+    <t>12533.78</t>
+  </si>
+  <si>
+    <t>1670.38</t>
+  </si>
+  <si>
+    <t>5911.27</t>
+  </si>
+  <si>
+    <t>2184.42</t>
+  </si>
+  <si>
+    <t>3640.94</t>
+  </si>
+  <si>
+    <t>1657.97</t>
+  </si>
+  <si>
+    <t>35030.02</t>
+  </si>
+  <si>
+    <t>2331.32</t>
+  </si>
+  <si>
+    <t>233.94</t>
+  </si>
+  <si>
+    <t>1643.35</t>
+  </si>
+  <si>
+    <t>8374.02</t>
+  </si>
+  <si>
+    <t>38744.73</t>
+  </si>
+  <si>
+    <t>3941.11</t>
+  </si>
+  <si>
+    <t>540.72</t>
+  </si>
+  <si>
+    <t>2295.14</t>
+  </si>
+  <si>
+    <t>1591.32</t>
+  </si>
+  <si>
+    <t>930.84</t>
+  </si>
+  <si>
+    <t>743.83</t>
+  </si>
+  <si>
+    <t>1244.63</t>
+  </si>
+  <si>
+    <t>9007.41</t>
+  </si>
+  <si>
+    <t>13112.35</t>
+  </si>
+  <si>
+    <t>6762.01</t>
+  </si>
+  <si>
+    <t>1658.15</t>
+  </si>
+  <si>
+    <t>3938.86</t>
+  </si>
+  <si>
+    <t>22826.93</t>
+  </si>
+  <si>
+    <t>1173.20</t>
+  </si>
+  <si>
+    <t>7816.08</t>
+  </si>
+  <si>
+    <t>730.74</t>
+  </si>
+  <si>
+    <t>291.51</t>
+  </si>
+  <si>
+    <t>136.18</t>
+  </si>
+  <si>
+    <t>68098.15</t>
+  </si>
+  <si>
+    <t>32594.02</t>
+  </si>
+  <si>
+    <t>2874.63</t>
+  </si>
+  <si>
+    <t>47068.84</t>
+  </si>
+  <si>
+    <t>11048.90</t>
+  </si>
+  <si>
+    <t>1761.91</t>
+  </si>
+  <si>
+    <t>6241.05</t>
+  </si>
+  <si>
+    <t>2186.93</t>
+  </si>
+  <si>
+    <t>3498.78</t>
+  </si>
+  <si>
+    <t>1749.40</t>
+  </si>
+  <si>
+    <t>32892.06</t>
+  </si>
+  <si>
+    <t>2445.86</t>
+  </si>
+  <si>
+    <t>243.20</t>
+  </si>
+  <si>
+    <t>1586.83</t>
+  </si>
+  <si>
+    <t>8901.37</t>
+  </si>
+  <si>
+    <t>41053.37</t>
+  </si>
+  <si>
+    <t>5134.17</t>
+  </si>
+  <si>
+    <t>560.34</t>
+  </si>
+  <si>
+    <t>2532.44</t>
+  </si>
+  <si>
+    <t>1802.87</t>
+  </si>
+  <si>
+    <t>717.08</t>
+  </si>
+  <si>
+    <t>735.93</t>
+  </si>
+  <si>
+    <t>1288.60</t>
+  </si>
+  <si>
+    <t>9187.55</t>
+  </si>
+  <si>
+    <t>13448.98</t>
+  </si>
+  <si>
+    <t>6866.89</t>
+  </si>
+  <si>
+    <t>1691.31</t>
+  </si>
+  <si>
+    <t>3965.52</t>
+  </si>
+  <si>
+    <t>23392.24</t>
+  </si>
+  <si>
+    <t>1275.14</t>
+  </si>
+  <si>
+    <t>8311.45</t>
+  </si>
+  <si>
+    <t>692.58</t>
+  </si>
+  <si>
+    <t>291.89</t>
+  </si>
+  <si>
+    <t>138.63</t>
+  </si>
+  <si>
+    <t>67068.04</t>
+  </si>
+  <si>
+    <t>37906.58</t>
+  </si>
+  <si>
+    <t>2878.93</t>
+  </si>
+  <si>
+    <t>48104.35</t>
+  </si>
+  <si>
+    <t>11208.72</t>
+  </si>
+  <si>
+    <t>1818.00</t>
+  </si>
+  <si>
+    <t>2348.84</t>
+  </si>
+  <si>
+    <t>3503.32</t>
+  </si>
+  <si>
+    <t>1767.01</t>
+  </si>
+  <si>
+    <t>33392.97</t>
+  </si>
+  <si>
+    <t>2519.22</t>
+  </si>
+  <si>
+    <t>257.79</t>
+  </si>
+  <si>
+    <t>1643.69</t>
+  </si>
+  <si>
+    <t>9469.21</t>
+  </si>
+  <si>
+    <t>43477.81</t>
+  </si>
+  <si>
+    <t>5316.20</t>
+  </si>
+  <si>
+    <t>567.23</t>
+  </si>
+  <si>
+    <t>1447.59</t>
+  </si>
+  <si>
+    <t>2148.98</t>
+  </si>
+  <si>
+    <t>760.80</t>
+  </si>
+  <si>
+    <t>749.94</t>
+  </si>
+  <si>
+    <t>1328.64</t>
+  </si>
+  <si>
+    <t>telur_itik</t>
   </si>
 </sst>
 </file>
@@ -166,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,16 +719,41 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,12 +791,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -285,6 +828,11 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,9 +1149,10 @@
     <col min="3" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,19 +1163,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43101</v>
       </c>
@@ -648,8 +1200,11 @@
       <c r="G2" s="8">
         <v>6818</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43101</v>
       </c>
@@ -671,8 +1226,11 @@
       <c r="G3" s="8">
         <v>16337</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43101</v>
       </c>
@@ -694,8 +1252,11 @@
       <c r="G4" s="8">
         <v>113865</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43101</v>
       </c>
@@ -717,8 +1278,11 @@
       <c r="G5" s="8">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -740,8 +1304,11 @@
       <c r="G6" s="8">
         <v>10059</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
@@ -763,8 +1330,11 @@
       <c r="G7" s="8">
         <v>1443</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43101</v>
       </c>
@@ -786,8 +1356,11 @@
       <c r="G8" s="8">
         <v>911</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43101</v>
       </c>
@@ -809,8 +1382,11 @@
       <c r="G9" s="8">
         <v>3608</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43101</v>
       </c>
@@ -832,8 +1408,11 @@
       <c r="G10" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43101</v>
       </c>
@@ -855,8 +1434,11 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43101</v>
       </c>
@@ -875,8 +1457,11 @@
       <c r="F12" s="6">
         <v>28904.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43101</v>
       </c>
@@ -898,8 +1483,11 @@
       <c r="G13" s="9">
         <v>167769</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43101</v>
       </c>
@@ -921,8 +1509,11 @@
       <c r="G14" s="9">
         <v>445585</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43101</v>
       </c>
@@ -944,8 +1535,11 @@
       <c r="G15" s="9">
         <v>14950</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43101</v>
       </c>
@@ -967,8 +1561,11 @@
       <c r="G16" s="9">
         <v>367031</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43101</v>
       </c>
@@ -990,8 +1587,11 @@
       <c r="G17" s="9">
         <v>880</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43101</v>
       </c>
@@ -1013,8 +1613,11 @@
       <c r="G18" s="9">
         <v>24267</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43101</v>
       </c>
@@ -1036,8 +1639,11 @@
       <c r="G19" s="9">
         <v>212885</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43101</v>
       </c>
@@ -1059,8 +1665,11 @@
       <c r="G20" s="9">
         <v>4542</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43101</v>
       </c>
@@ -1082,8 +1691,11 @@
       <c r="G21" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43101</v>
       </c>
@@ -1105,8 +1717,11 @@
       <c r="G22" s="9">
         <v>696</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43101</v>
       </c>
@@ -1128,8 +1743,11 @@
       <c r="G23" s="9">
         <v>1411</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43101</v>
       </c>
@@ -1151,8 +1769,11 @@
       <c r="G24" s="9">
         <v>828</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -1174,8 +1795,11 @@
       <c r="G25" s="9">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43101</v>
       </c>
@@ -1197,8 +1821,11 @@
       <c r="G26" s="9">
         <v>3740</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43101</v>
       </c>
@@ -1220,8 +1847,11 @@
       <c r="G27" s="9">
         <v>8363</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43101</v>
       </c>
@@ -1243,8 +1873,11 @@
       <c r="G28" s="9">
         <v>92392</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43101</v>
       </c>
@@ -1266,8 +1899,11 @@
       <c r="G29" s="9">
         <v>486</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43101</v>
       </c>
@@ -1289,8 +1925,11 @@
       <c r="G30" s="9">
         <v>1409</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43101</v>
       </c>
@@ -1312,8 +1951,11 @@
       <c r="G31" s="9">
         <v>545</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43101</v>
       </c>
@@ -1335,8 +1977,11 @@
       <c r="G32" s="9">
         <v>1042</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43101</v>
       </c>
@@ -1358,8 +2003,11 @@
       <c r="G33" s="9">
         <v>261</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43101</v>
       </c>
@@ -1381,8 +2029,11 @@
       <c r="G34" s="9">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43101</v>
       </c>
@@ -1404,3237 +2055,3650 @@
       <c r="G35" s="9">
         <v>720</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>59200533.719999999</v>
+        <v>1714437.6</v>
       </c>
       <c r="D36" s="4">
-        <v>11377934.439999999</v>
+        <v>310012.46000000002</v>
       </c>
       <c r="E36">
-        <v>59200533.719999999</v>
+        <v>1714437.6</v>
       </c>
       <c r="F36" s="6">
-        <v>4688120.66</v>
+        <v>12312.1</v>
       </c>
       <c r="G36" s="9">
         <v>8840</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43466</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>1714437.6</v>
+        <v>2078901.59</v>
       </c>
       <c r="D37" s="4">
-        <v>310012.46000000002</v>
+        <v>413141.24</v>
       </c>
       <c r="E37">
-        <v>1714437.6</v>
+        <v>2078901.59</v>
       </c>
       <c r="F37" s="6">
-        <v>12312.1</v>
+        <v>512431.77</v>
       </c>
       <c r="G37" s="9">
         <v>18072</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43466</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>2078901.59</v>
+        <v>1482996.01</v>
       </c>
       <c r="D38" s="4">
-        <v>413141.24</v>
+        <v>311671.23</v>
       </c>
       <c r="E38">
-        <v>2078901.59</v>
+        <v>1482996.01</v>
       </c>
       <c r="F38" s="6">
-        <v>512431.77</v>
+        <v>284134.53999999998</v>
       </c>
       <c r="G38" s="9">
         <v>122399</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43466</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>1482996.01</v>
+        <v>230873.97</v>
       </c>
       <c r="D39" s="4">
-        <v>311671.23</v>
+        <v>63142.04</v>
       </c>
       <c r="E39">
-        <v>1482996.01</v>
+        <v>230873.97</v>
       </c>
       <c r="F39" s="6">
-        <v>284134.53999999998</v>
+        <v>12224.04</v>
       </c>
       <c r="G39" s="9">
         <v>507</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43466</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>230873.97</v>
+        <v>309932.68</v>
       </c>
       <c r="D40" s="4">
-        <v>63142.04</v>
+        <v>69536.06</v>
       </c>
       <c r="E40">
-        <v>230873.97</v>
+        <v>309932.68</v>
       </c>
       <c r="F40" s="6">
-        <v>12224.04</v>
+        <v>22702.11</v>
       </c>
       <c r="G40" s="9">
         <v>9686</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43466</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>309932.68</v>
+        <v>2603396.2400000002</v>
       </c>
       <c r="D41" s="4">
-        <v>69536.06</v>
+        <v>539316.52</v>
       </c>
       <c r="E41">
-        <v>309932.68</v>
+        <v>2603396.2400000002</v>
       </c>
       <c r="F41" s="6">
-        <v>22702.11</v>
+        <v>136806.64000000001</v>
       </c>
       <c r="G41" s="9">
         <v>1390</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43466</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>2603396.2400000002</v>
+        <v>296472.07</v>
       </c>
       <c r="D42" s="4">
-        <v>539316.52</v>
+        <v>64406.86</v>
       </c>
       <c r="E42">
-        <v>2603396.2400000002</v>
+        <v>296472.07</v>
       </c>
       <c r="F42" s="6">
-        <v>136806.64000000001</v>
+        <v>10841.65</v>
       </c>
       <c r="G42" s="9">
         <v>523</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43466</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>296472.07</v>
+        <v>2164089.33</v>
       </c>
       <c r="D43" s="4">
-        <v>64406.86</v>
+        <v>464103.42</v>
       </c>
       <c r="E43">
-        <v>296472.07</v>
+        <v>2164089.33</v>
       </c>
       <c r="F43" s="6">
-        <v>10841.65</v>
+        <v>130824.31</v>
       </c>
       <c r="G43" s="9">
         <v>3634</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>2164089.33</v>
+        <v>48805.68</v>
       </c>
       <c r="D44" s="4">
-        <v>464103.42</v>
+        <v>17087.810000000001</v>
       </c>
       <c r="E44">
-        <v>2164089.33</v>
+        <v>48805.68</v>
       </c>
       <c r="F44" s="6">
-        <v>130824.31</v>
+        <v>10579.74</v>
       </c>
       <c r="G44" s="9">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43466</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>48805.68</v>
+        <v>1150.8</v>
       </c>
       <c r="D45" s="4">
-        <v>17087.810000000001</v>
+        <v>356.27</v>
       </c>
       <c r="E45">
-        <v>48805.68</v>
+        <v>1150.8</v>
       </c>
       <c r="F45" s="6">
-        <v>10579.74</v>
+        <v>13987.16</v>
       </c>
       <c r="G45" s="9">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43466</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>1150.8</v>
+        <v>3359.31</v>
       </c>
       <c r="D46" s="4">
-        <v>356.27</v>
+        <v>622.59</v>
       </c>
       <c r="E46">
-        <v>1150.8</v>
+        <v>3359.31</v>
       </c>
       <c r="F46" s="6">
-        <v>13987.16</v>
+        <v>0</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43466</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>3359.31</v>
+        <v>9084957.2200000007</v>
       </c>
       <c r="D47" s="4">
-        <v>622.59</v>
+        <v>1578835.7</v>
       </c>
       <c r="E47">
-        <v>3359.31</v>
+        <v>9084957.2200000007</v>
       </c>
       <c r="F47" s="6">
-        <v>0</v>
+        <v>468872.04</v>
       </c>
       <c r="G47" s="9">
         <v>173463</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43466</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>9084957.2200000007</v>
+        <v>9655653.9800000004</v>
       </c>
       <c r="D48" s="4">
-        <v>1578835.7</v>
+        <v>1678479.21</v>
       </c>
       <c r="E48">
-        <v>9084957.2200000007</v>
+        <v>9655653.9800000004</v>
       </c>
       <c r="F48" s="6">
-        <v>468872.04</v>
+        <v>499631.62</v>
       </c>
       <c r="G48" s="9">
         <v>481890</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43466</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>9655653.9800000004</v>
+        <v>533477.4</v>
       </c>
       <c r="D49" s="4">
-        <v>1678479.21</v>
+        <v>111477.36</v>
       </c>
       <c r="E49">
-        <v>9655653.9800000004</v>
+        <v>533477.4</v>
       </c>
       <c r="F49" s="6">
-        <v>499631.62</v>
+        <v>62845.279999999999</v>
       </c>
       <c r="G49" s="9">
         <v>16999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43466</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>533477.4</v>
+        <v>9580933.8800000008</v>
       </c>
       <c r="D50" s="4">
-        <v>111477.36</v>
+        <v>1702426.36</v>
       </c>
       <c r="E50">
-        <v>533477.4</v>
+        <v>9580933.8800000008</v>
       </c>
       <c r="F50" s="6">
-        <v>62845.279999999999</v>
+        <v>1632492.46</v>
       </c>
       <c r="G50" s="9">
         <v>407877</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43466</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>9580933.8800000008</v>
+        <v>1470503.35</v>
       </c>
       <c r="D51" s="4">
-        <v>1702426.36</v>
+        <v>303731.8</v>
       </c>
       <c r="E51">
-        <v>9580933.8800000008</v>
+        <v>1470503.35</v>
       </c>
       <c r="F51" s="6">
-        <v>1632492.46</v>
+        <v>204375.87</v>
       </c>
       <c r="G51" s="9">
         <v>1545</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43466</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>1470503.35</v>
+        <v>579320.53</v>
       </c>
       <c r="D52" s="4">
-        <v>303731.8</v>
+        <v>95319.34</v>
       </c>
       <c r="E52">
-        <v>1470503.35</v>
+        <v>579320.53</v>
       </c>
       <c r="F52" s="6">
-        <v>204375.87</v>
+        <v>186310.54</v>
       </c>
       <c r="G52" s="9">
         <v>19687</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43466</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>579320.53</v>
+        <v>1402182.39</v>
       </c>
       <c r="D53" s="4">
-        <v>95319.34</v>
+        <v>281666.03999999998</v>
       </c>
       <c r="E53">
-        <v>579320.53</v>
+        <v>1402182.39</v>
       </c>
       <c r="F53" s="6">
-        <v>186310.54</v>
+        <v>33946.61</v>
       </c>
       <c r="G53" s="9">
         <v>188255</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43466</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>1402182.39</v>
+        <v>811724.18</v>
       </c>
       <c r="D54" s="4">
-        <v>281666.03999999998</v>
+        <v>198867.41</v>
       </c>
       <c r="E54">
-        <v>1402182.39</v>
+        <v>811724.18</v>
       </c>
       <c r="F54" s="6">
-        <v>33946.61</v>
+        <v>9186.98</v>
       </c>
       <c r="G54" s="9">
         <v>8254</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43466</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>811724.18</v>
+        <v>847875.13</v>
       </c>
       <c r="D55" s="4">
-        <v>198867.41</v>
+        <v>290048.44</v>
       </c>
       <c r="E55">
-        <v>811724.18</v>
+        <v>847875.13</v>
       </c>
       <c r="F55" s="6">
-        <v>9186.98</v>
+        <v>115402.45</v>
       </c>
       <c r="G55" s="9">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43466</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>847875.13</v>
+        <v>443561.33</v>
       </c>
       <c r="D56" s="4">
-        <v>290048.44</v>
+        <v>146144.51</v>
       </c>
       <c r="E56">
-        <v>847875.13</v>
+        <v>443561.33</v>
       </c>
       <c r="F56" s="6">
-        <v>115402.45</v>
+        <v>7390.76</v>
       </c>
       <c r="G56" s="9">
         <v>396</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43466</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57">
-        <v>443561.33</v>
+        <v>1342861.82</v>
       </c>
       <c r="D57" s="4">
-        <v>146144.51</v>
+        <v>356245.95</v>
       </c>
       <c r="E57">
-        <v>443561.33</v>
+        <v>1342861.82</v>
       </c>
       <c r="F57" s="6">
-        <v>7390.76</v>
+        <v>86776.77</v>
       </c>
       <c r="G57" s="9">
         <v>1143</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43466</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>1342861.82</v>
+        <v>253818.37</v>
       </c>
       <c r="D58" s="4">
-        <v>356245.95</v>
+        <v>69707.75</v>
       </c>
       <c r="E58">
-        <v>1342861.82</v>
+        <v>253818.37</v>
       </c>
       <c r="F58" s="6">
-        <v>86776.77</v>
+        <v>33346.33</v>
       </c>
       <c r="G58" s="9">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43466</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>253818.37</v>
+        <v>33357.19</v>
       </c>
       <c r="D59" s="4">
-        <v>69707.75</v>
+        <v>10294.700000000001</v>
       </c>
       <c r="E59">
-        <v>253818.37</v>
+        <v>33357.19</v>
       </c>
       <c r="F59" s="6">
-        <v>33346.33</v>
+        <v>607.05999999999995</v>
       </c>
       <c r="G59" s="9">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43466</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60">
-        <v>33357.19</v>
+        <v>277776.31</v>
       </c>
       <c r="D60" s="4">
-        <v>10294.700000000001</v>
+        <v>62020.39</v>
       </c>
       <c r="E60">
-        <v>33357.19</v>
+        <v>277776.31</v>
       </c>
       <c r="F60" s="6">
-        <v>607.05999999999995</v>
+        <v>26587.86</v>
       </c>
       <c r="G60" s="9">
         <v>3139</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43466</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
-        <v>277776.31</v>
+        <v>844904.3</v>
       </c>
       <c r="D61" s="4">
-        <v>62020.39</v>
+        <v>186100.44</v>
       </c>
       <c r="E61">
-        <v>277776.31</v>
+        <v>844904.3</v>
       </c>
       <c r="F61" s="6">
-        <v>26587.86</v>
+        <v>13834.73</v>
       </c>
       <c r="G61" s="9">
         <v>6508</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43466</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>844904.3</v>
+        <v>5054166.96</v>
       </c>
       <c r="D62" s="4">
-        <v>186100.44</v>
+        <v>1010188.75</v>
       </c>
       <c r="E62">
-        <v>844904.3</v>
+        <v>5054166.96</v>
       </c>
       <c r="F62" s="6">
-        <v>13834.73</v>
+        <v>194650.44</v>
       </c>
       <c r="G62" s="9">
         <v>101762</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43466</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>5054166.96</v>
+        <v>519706.93</v>
       </c>
       <c r="D63" s="4">
-        <v>1010188.75</v>
+        <v>132343.85999999999</v>
       </c>
       <c r="E63">
-        <v>5054166.96</v>
+        <v>519706.93</v>
       </c>
       <c r="F63" s="6">
-        <v>194650.44</v>
+        <v>2831.72</v>
       </c>
       <c r="G63" s="9">
         <v>390</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43466</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>519706.93</v>
+        <v>231211.11</v>
       </c>
       <c r="D64" s="4">
-        <v>132343.85999999999</v>
+        <v>49009.95</v>
       </c>
       <c r="E64">
-        <v>519706.93</v>
+        <v>231211.11</v>
       </c>
       <c r="F64" s="6">
-        <v>2831.72</v>
+        <v>3819.14</v>
       </c>
       <c r="G64" s="9">
         <v>629</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43466</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>231211.11</v>
+        <v>300142.21999999997</v>
       </c>
       <c r="D65" s="4">
-        <v>49009.95</v>
+        <v>62581.47</v>
       </c>
       <c r="E65">
-        <v>231211.11</v>
+        <v>300142.21999999997</v>
       </c>
       <c r="F65" s="6">
-        <v>3819.14</v>
+        <v>2482.08</v>
       </c>
       <c r="G65" s="9">
         <v>507</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43466</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66">
-        <v>300142.21999999997</v>
+        <v>98254.75</v>
       </c>
       <c r="D66" s="4">
-        <v>62581.47</v>
+        <v>25976.85</v>
       </c>
       <c r="E66">
-        <v>300142.21999999997</v>
+        <v>98254.75</v>
       </c>
       <c r="F66" s="6">
-        <v>2482.08</v>
+        <v>619.19000000000005</v>
       </c>
       <c r="G66" s="9">
         <v>736</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43466</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>98254.75</v>
+        <v>37945.64</v>
       </c>
       <c r="D67" s="4">
-        <v>25976.85</v>
+        <v>11700.5</v>
       </c>
       <c r="E67">
-        <v>98254.75</v>
+        <v>37945.64</v>
       </c>
       <c r="F67" s="6">
-        <v>619.19000000000005</v>
+        <v>88.4</v>
       </c>
       <c r="G67" s="9">
         <v>624</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43466</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
-        <v>37945.64</v>
+        <v>29943.56</v>
       </c>
       <c r="D68" s="4">
-        <v>11700.5</v>
+        <v>7192.15</v>
       </c>
       <c r="E68">
-        <v>37945.64</v>
+        <v>29943.56</v>
       </c>
       <c r="F68" s="6">
-        <v>88.4</v>
+        <v>8225.65</v>
       </c>
       <c r="G68" s="9">
         <v>184</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43466</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69">
-        <v>29943.56</v>
+        <v>235339.51</v>
       </c>
       <c r="D69" s="4">
-        <v>7192.15</v>
+        <v>54131.72</v>
       </c>
       <c r="E69">
-        <v>29943.56</v>
+        <v>235339.51</v>
       </c>
       <c r="F69" s="6">
-        <v>8225.65</v>
+        <v>12214.19</v>
       </c>
       <c r="G69" s="9">
         <v>578</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>235339.51</v>
+        <v>1757313.07</v>
       </c>
       <c r="D70" s="4">
-        <v>54131.72</v>
+        <v>317869.40999999997</v>
       </c>
       <c r="E70">
-        <v>235339.51</v>
+        <v>55.28</v>
       </c>
       <c r="F70" s="6">
-        <v>12214.19</v>
+        <v>3824.54</v>
       </c>
       <c r="G70" s="9">
         <v>11246</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>54604033.340000004</v>
+        <v>2040500.19</v>
       </c>
       <c r="D71" s="4">
-        <v>10677887.15</v>
+        <v>388591.22</v>
       </c>
       <c r="E71">
-        <v>54604033.340000004</v>
+        <v>52.51</v>
       </c>
       <c r="F71" s="6">
-        <v>4753382.2300000004</v>
+        <v>452308.8</v>
       </c>
       <c r="G71" s="9">
         <v>29222</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43831</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>1757313.07</v>
+        <v>1387269.29</v>
       </c>
       <c r="D72" s="4">
-        <v>317869.40999999997</v>
+        <v>295664.46999999997</v>
       </c>
       <c r="E72">
-        <v>55.28</v>
+        <v>46.92</v>
       </c>
       <c r="F72" s="6">
-        <v>3824.54</v>
+        <v>321917.73</v>
       </c>
       <c r="G72" s="9">
         <v>153770</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43831</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>2040500.19</v>
+        <v>243685.04</v>
       </c>
       <c r="D73" s="4">
-        <v>388591.22</v>
+        <v>64733.13</v>
       </c>
       <c r="E73">
-        <v>52.51</v>
+        <v>37.64</v>
       </c>
       <c r="F73" s="6">
-        <v>452308.8</v>
+        <v>7000.82</v>
       </c>
       <c r="G73" s="9">
         <v>263</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43831</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>1387269.29</v>
+        <v>386413.49</v>
       </c>
       <c r="D74" s="4">
-        <v>295664.46999999997</v>
+        <v>84772.93</v>
       </c>
       <c r="E74">
-        <v>46.92</v>
+        <v>45.58</v>
       </c>
       <c r="F74" s="6">
-        <v>321917.73</v>
+        <v>30341.74</v>
       </c>
       <c r="G74" s="9">
         <v>11977</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43831</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>243685.04</v>
+        <v>2743059.68</v>
       </c>
       <c r="D75" s="4">
-        <v>64733.13</v>
+        <v>551320.76</v>
       </c>
       <c r="E75">
-        <v>37.64</v>
+        <v>49.75</v>
       </c>
       <c r="F75" s="6">
-        <v>7000.82</v>
+        <v>183084.08</v>
       </c>
       <c r="G75" s="9">
         <v>934</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43831</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>386413.49</v>
+        <v>292834.03999999998</v>
       </c>
       <c r="D76" s="4">
-        <v>84772.93</v>
+        <v>64137.279999999999</v>
       </c>
       <c r="E76">
-        <v>45.58</v>
+        <v>45.66</v>
       </c>
       <c r="F76" s="6">
-        <v>30341.74</v>
+        <v>6739.02</v>
       </c>
       <c r="G76" s="9">
         <v>1153</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43831</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>2743059.68</v>
+        <v>2650289.64</v>
       </c>
       <c r="D77" s="4">
-        <v>551320.76</v>
+        <v>545149.05000000005</v>
       </c>
       <c r="E77">
-        <v>49.75</v>
+        <v>48.62</v>
       </c>
       <c r="F77" s="6">
-        <v>183084.08</v>
+        <v>193270.51</v>
       </c>
       <c r="G77" s="9">
         <v>2105</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43831</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>292834.03999999998</v>
+        <v>57324.32</v>
       </c>
       <c r="D78" s="4">
-        <v>64137.279999999999</v>
+        <v>17840.55</v>
       </c>
       <c r="E78">
-        <v>45.66</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="F78" s="6">
-        <v>6739.02</v>
+        <v>8436.25</v>
       </c>
       <c r="G78" s="9">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43831</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>2650289.64</v>
+        <v>852.54</v>
       </c>
       <c r="D79" s="4">
-        <v>545149.05000000005</v>
+        <v>298.52</v>
       </c>
       <c r="E79">
-        <v>48.62</v>
+        <v>28.56</v>
       </c>
       <c r="F79" s="6">
-        <v>193270.51</v>
+        <v>16111.78</v>
       </c>
       <c r="G79" s="9">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43831</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>57324.32</v>
+        <v>4543.93</v>
       </c>
       <c r="D80" s="4">
-        <v>17840.55</v>
+        <v>914.51</v>
       </c>
       <c r="E80">
-        <v>32.130000000000003</v>
+        <v>49.69</v>
       </c>
       <c r="F80" s="6">
-        <v>8436.25</v>
+        <v>0</v>
       </c>
       <c r="G80" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43831</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>852.54</v>
+        <v>9016772.5800000001</v>
       </c>
       <c r="D81" s="4">
-        <v>298.52</v>
+        <v>1586888.63</v>
       </c>
       <c r="E81">
-        <v>28.56</v>
+        <v>56.82</v>
       </c>
       <c r="F81" s="6">
-        <v>16111.78</v>
+        <v>587201.77</v>
       </c>
       <c r="G81" s="9">
         <v>164827</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>4543.93</v>
+        <v>9489164.6199999992</v>
       </c>
       <c r="D82" s="4">
-        <v>914.51</v>
+        <v>1666931.49</v>
       </c>
       <c r="E82">
-        <v>49.69</v>
+        <v>56.93</v>
       </c>
       <c r="F82" s="6">
-        <v>0</v>
+        <v>659387.54</v>
       </c>
       <c r="G82" s="9">
         <v>611165</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43831</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>9016772.5800000001</v>
+        <v>523395.95</v>
       </c>
       <c r="D83" s="4">
-        <v>1586888.63</v>
+        <v>110548.12</v>
       </c>
       <c r="E83">
-        <v>56.82</v>
+        <v>47.35</v>
       </c>
       <c r="F83" s="6">
-        <v>587201.77</v>
+        <v>107288.18</v>
       </c>
       <c r="G83" s="9">
         <v>18811</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43831</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>9489164.6199999992</v>
+        <v>9944538.2599999998</v>
       </c>
       <c r="D84" s="4">
-        <v>1666931.49</v>
+        <v>1754380.3</v>
       </c>
       <c r="E84">
-        <v>56.93</v>
+        <v>56.68</v>
       </c>
       <c r="F84" s="6">
-        <v>659387.54</v>
+        <v>1622995.39</v>
       </c>
       <c r="G84" s="9">
         <v>454584</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43831</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>523395.95</v>
+        <v>1655170.09</v>
       </c>
       <c r="D85" s="4">
-        <v>110548.12</v>
+        <v>325333.24</v>
       </c>
       <c r="E85">
-        <v>47.35</v>
+        <v>50.88</v>
       </c>
       <c r="F85" s="6">
-        <v>107288.18</v>
+        <v>244612.91</v>
       </c>
       <c r="G85" s="9">
         <v>1404</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43831</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>9944538.2599999998</v>
+        <v>532168.44999999995</v>
       </c>
       <c r="D86" s="4">
-        <v>1754380.3</v>
+        <v>90980.69</v>
       </c>
       <c r="E86">
-        <v>56.68</v>
+        <v>58.49</v>
       </c>
       <c r="F86" s="6">
-        <v>1622995.39</v>
+        <v>193926.71</v>
       </c>
       <c r="G86" s="9">
         <v>14207</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43831</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>1655170.09</v>
+        <v>1317189.81</v>
       </c>
       <c r="D87" s="4">
-        <v>325333.24</v>
+        <v>273460.82</v>
       </c>
       <c r="E87">
-        <v>50.88</v>
+        <v>48.17</v>
       </c>
       <c r="F87" s="6">
-        <v>244612.91</v>
+        <v>42451.199999999997</v>
       </c>
       <c r="G87" s="9">
         <v>188740</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43831</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>532168.44999999995</v>
+        <v>725024.3</v>
       </c>
       <c r="D88" s="4">
-        <v>90980.69</v>
+        <v>181690.63</v>
       </c>
       <c r="E88">
-        <v>58.49</v>
+        <v>39.9</v>
       </c>
       <c r="F88" s="6">
-        <v>193926.71</v>
+        <v>3885.97</v>
       </c>
       <c r="G88" s="9">
         <v>10424</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43831</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>1317189.81</v>
+        <v>778170.36</v>
       </c>
       <c r="D89" s="4">
-        <v>273460.82</v>
+        <v>256575.43</v>
       </c>
       <c r="E89">
-        <v>48.17</v>
+        <v>30.33</v>
       </c>
       <c r="F89" s="6">
-        <v>42451.199999999997</v>
+        <v>70496.3</v>
       </c>
       <c r="G89" s="9">
         <v>227</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43831</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>725024.3</v>
+        <v>457952</v>
       </c>
       <c r="D90" s="4">
-        <v>181690.63</v>
+        <v>143275.04999999999</v>
       </c>
       <c r="E90">
-        <v>39.9</v>
+        <v>31.96</v>
       </c>
       <c r="F90" s="6">
-        <v>3885.97</v>
+        <v>7338.04</v>
       </c>
       <c r="G90" s="9">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43831</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>778170.36</v>
+        <v>1150306.6599999999</v>
       </c>
       <c r="D91" s="4">
-        <v>256575.43</v>
+        <v>289836.34999999998</v>
       </c>
       <c r="E91">
-        <v>30.33</v>
+        <v>39.69</v>
       </c>
       <c r="F91" s="6">
-        <v>70496.3</v>
+        <v>87548.47</v>
       </c>
       <c r="G91" s="9">
         <v>462</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43831</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92">
-        <v>457952</v>
+        <v>262434.52</v>
       </c>
       <c r="D92" s="4">
-        <v>143275.04999999999</v>
+        <v>73568.44</v>
       </c>
       <c r="E92">
-        <v>31.96</v>
+        <v>35.67</v>
       </c>
       <c r="F92" s="6">
-        <v>7338.04</v>
+        <v>26867.21</v>
       </c>
       <c r="G92" s="9">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43831</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>1150306.6599999999</v>
+        <v>33574.28</v>
       </c>
       <c r="D93" s="4">
-        <v>289836.34999999998</v>
+        <v>9883.0499999999993</v>
       </c>
       <c r="E93">
-        <v>39.69</v>
+        <v>33.97</v>
       </c>
       <c r="F93" s="6">
-        <v>87548.47</v>
+        <v>1405.4</v>
       </c>
       <c r="G93" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>43831</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C94">
-        <v>262434.52</v>
+        <v>248879.48</v>
       </c>
       <c r="D94" s="4">
-        <v>73568.44</v>
+        <v>61827.86</v>
       </c>
       <c r="E94">
-        <v>35.67</v>
+        <v>40.25</v>
       </c>
       <c r="F94" s="6">
-        <v>26867.21</v>
+        <v>32996.22</v>
       </c>
       <c r="G94" s="9">
         <v>4937</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43831</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>33574.28</v>
+        <v>792248.84</v>
       </c>
       <c r="D95" s="4">
-        <v>9883.0499999999993</v>
+        <v>178066.94</v>
       </c>
       <c r="E95">
-        <v>33.97</v>
+        <v>44.49</v>
       </c>
       <c r="F95" s="6">
-        <v>1405.4</v>
+        <v>19360.75</v>
       </c>
       <c r="G95" s="9">
         <v>5725</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43831</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C96">
-        <v>248879.48</v>
+        <v>4708464.97</v>
       </c>
       <c r="D96" s="4">
-        <v>61827.86</v>
+        <v>976258.14</v>
       </c>
       <c r="E96">
-        <v>40.25</v>
+        <v>48.23</v>
       </c>
       <c r="F96" s="6">
-        <v>32996.22</v>
+        <v>180414.43</v>
       </c>
       <c r="G96" s="9">
         <v>124381</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43831</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C97">
-        <v>792248.84</v>
+        <v>532773.49</v>
       </c>
       <c r="D97" s="4">
-        <v>178066.94</v>
+        <v>133697.15</v>
       </c>
       <c r="E97">
-        <v>44.49</v>
+        <v>39.85</v>
       </c>
       <c r="F97" s="6">
-        <v>19360.75</v>
+        <v>3014.32</v>
       </c>
       <c r="G97" s="9">
         <v>655</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43831</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C98">
-        <v>4708464.97</v>
+        <v>227627.2</v>
       </c>
       <c r="D98" s="4">
-        <v>976258.14</v>
+        <v>48686.34</v>
       </c>
       <c r="E98">
-        <v>48.23</v>
+        <v>46.75</v>
       </c>
       <c r="F98" s="6">
-        <v>180414.43</v>
+        <v>4177.8100000000004</v>
       </c>
       <c r="G98" s="9">
         <v>476</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43831</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C99">
-        <v>532773.49</v>
+        <v>345050.37</v>
       </c>
       <c r="D99" s="4">
-        <v>133697.15</v>
+        <v>64826.18</v>
       </c>
       <c r="E99">
-        <v>39.85</v>
+        <v>53.23</v>
       </c>
       <c r="F99" s="6">
-        <v>3014.32</v>
+        <v>948.45</v>
       </c>
       <c r="G99" s="9">
         <v>631</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43831</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C100">
-        <v>227627.2</v>
+        <v>110447.3</v>
       </c>
       <c r="D100" s="4">
-        <v>48686.34</v>
+        <v>28668.22</v>
       </c>
       <c r="E100">
-        <v>46.75</v>
+        <v>38.53</v>
       </c>
       <c r="F100" s="6">
-        <v>4177.8100000000004</v>
+        <v>1048.29</v>
       </c>
       <c r="G100" s="9">
         <v>1106</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43831</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101">
-        <v>345050.37</v>
+        <v>43382.85</v>
       </c>
       <c r="D101" s="4">
-        <v>64826.18</v>
+        <v>10301.91</v>
       </c>
       <c r="E101">
-        <v>53.23</v>
+        <v>42.11</v>
       </c>
       <c r="F101" s="6">
-        <v>948.45</v>
+        <v>159.63</v>
       </c>
       <c r="G101" s="9">
         <v>951</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43831</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102">
-        <v>110447.3</v>
+        <v>24378.33</v>
       </c>
       <c r="D102" s="4">
-        <v>28668.22</v>
+        <v>7570.63</v>
       </c>
       <c r="E102">
-        <v>38.53</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F102" s="6">
-        <v>1048.29</v>
+        <v>6160.84</v>
       </c>
       <c r="G102" s="9">
         <v>136</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43831</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C103">
-        <v>43382.85</v>
+        <v>166002.29999999999</v>
       </c>
       <c r="D103" s="4">
-        <v>10301.91</v>
+        <v>52727.519999999997</v>
       </c>
       <c r="E103">
-        <v>42.11</v>
+        <v>31.48</v>
       </c>
       <c r="F103" s="6">
-        <v>159.63</v>
+        <v>14848.88</v>
       </c>
       <c r="G103" s="9">
         <v>209</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>24378.33</v>
+        <v>1634639.6</v>
       </c>
       <c r="D104" s="4">
-        <v>7570.63</v>
+        <v>297058.38</v>
       </c>
       <c r="E104">
-        <v>32.200000000000003</v>
+        <v>55.03</v>
       </c>
       <c r="F104" s="6">
-        <v>6160.84</v>
+        <v>774.4</v>
       </c>
       <c r="G104" s="9">
         <v>10136</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>166002.29999999999</v>
+        <v>2004142.51</v>
       </c>
       <c r="D105" s="4">
-        <v>52727.519999999997</v>
+        <v>385405</v>
       </c>
       <c r="E105">
-        <v>31.48</v>
+        <v>52</v>
       </c>
       <c r="F105" s="6">
-        <v>14848.88</v>
+        <v>453118.88</v>
       </c>
       <c r="G105" s="9">
         <v>53962</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C106">
-        <v>54649202.240000002</v>
+        <v>1317209.3799999999</v>
       </c>
       <c r="D106" s="4">
-        <v>10657274.960000001</v>
+        <v>272391.95</v>
       </c>
       <c r="E106">
-        <v>51.28</v>
+        <v>48.36</v>
       </c>
       <c r="F106" s="6">
-        <v>5141570</v>
+        <v>303344.86</v>
       </c>
       <c r="G106" s="9">
         <v>200366</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44197</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>1634639.6</v>
+        <v>217458.87</v>
       </c>
       <c r="D107" s="4">
-        <v>297058.38</v>
+        <v>53062.35</v>
       </c>
       <c r="E107">
-        <v>55.03</v>
+        <v>40.98</v>
       </c>
       <c r="F107" s="6">
-        <v>774.4</v>
+        <v>4066.73</v>
       </c>
       <c r="G107" s="9">
         <v>329</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44197</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>2004142.51</v>
+        <v>298149.25</v>
       </c>
       <c r="D108" s="4">
-        <v>385405</v>
+        <v>64412.26</v>
       </c>
       <c r="E108">
-        <v>52</v>
+        <v>46.29</v>
       </c>
       <c r="F108" s="6">
-        <v>453118.88</v>
+        <v>42392.32</v>
       </c>
       <c r="G108" s="9">
         <v>13264</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44197</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>1317209.3799999999</v>
+        <v>2552443.19</v>
       </c>
       <c r="D109" s="4">
-        <v>272391.95</v>
+        <v>496241.65</v>
       </c>
       <c r="E109">
-        <v>48.36</v>
+        <v>51.44</v>
       </c>
       <c r="F109" s="6">
-        <v>303344.86</v>
+        <v>185928.45</v>
       </c>
       <c r="G109" s="9">
         <v>1125</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44197</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>217458.87</v>
+        <v>271117.19</v>
       </c>
       <c r="D110" s="4">
-        <v>53062.35</v>
+        <v>55704.69</v>
       </c>
       <c r="E110">
-        <v>40.98</v>
+        <v>48.67</v>
       </c>
       <c r="F110" s="6">
-        <v>4066.73</v>
+        <v>8250.92</v>
       </c>
       <c r="G110" s="9">
         <v>990</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44197</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>298149.25</v>
+        <v>2485452.7799999998</v>
       </c>
       <c r="D111" s="4">
-        <v>64412.26</v>
+        <v>489573.23</v>
       </c>
       <c r="E111">
-        <v>46.29</v>
+        <v>50.77</v>
       </c>
       <c r="F111" s="6">
-        <v>42392.32</v>
+        <v>197993.17</v>
       </c>
       <c r="G111" s="9">
         <v>1762</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44197</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>2552443.19</v>
+        <v>70496.25</v>
       </c>
       <c r="D112" s="4">
-        <v>496241.65</v>
+        <v>18278.27</v>
       </c>
       <c r="E112">
-        <v>51.44</v>
+        <v>38.57</v>
       </c>
       <c r="F112" s="6">
-        <v>185928.45</v>
+        <v>27037.46</v>
       </c>
       <c r="G112" s="9">
         <v>208</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44197</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>271117.19</v>
+        <v>855.01</v>
       </c>
       <c r="D113" s="4">
-        <v>55704.69</v>
+        <v>270.16000000000003</v>
       </c>
       <c r="E113">
-        <v>48.67</v>
+        <v>31.65</v>
       </c>
       <c r="F113" s="6">
-        <v>8250.92</v>
+        <v>17822.64</v>
       </c>
       <c r="G113" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44197</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C114">
-        <v>2485452.7799999998</v>
+        <v>3249.47</v>
       </c>
       <c r="D114" s="4">
-        <v>489573.23</v>
+        <v>559.97</v>
       </c>
       <c r="E114">
-        <v>50.77</v>
+        <v>58.03</v>
       </c>
       <c r="F114" s="6">
-        <v>197993.17</v>
+        <v>0</v>
       </c>
       <c r="G114" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44197</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C115">
-        <v>70496.25</v>
+        <v>9113573.0800000001</v>
       </c>
       <c r="D115" s="4">
-        <v>18278.27</v>
+        <v>1604109.31</v>
       </c>
       <c r="E115">
-        <v>38.57</v>
+        <v>56.81</v>
       </c>
       <c r="F115" s="6">
-        <v>27037.46</v>
+        <v>661895.15</v>
       </c>
       <c r="G115" s="9">
         <v>170650</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44197</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C116">
-        <v>855.01</v>
+        <v>9618656.8100000005</v>
       </c>
       <c r="D116" s="4">
-        <v>270.16000000000003</v>
+        <v>1696712.36</v>
       </c>
       <c r="E116">
-        <v>31.65</v>
+        <v>56.69</v>
       </c>
       <c r="F116" s="6">
-        <v>17822.64</v>
+        <v>735883.59</v>
       </c>
       <c r="G116" s="9">
         <v>564255</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44197</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C117">
-        <v>3249.47</v>
+        <v>556531.03</v>
       </c>
       <c r="D117" s="4">
-        <v>559.97</v>
+        <v>107506.16</v>
       </c>
       <c r="E117">
-        <v>58.03</v>
+        <v>51.77</v>
       </c>
       <c r="F117" s="6">
-        <v>0</v>
+        <v>129785.12</v>
       </c>
       <c r="G117" s="9">
         <v>29809</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44197</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>9113573.0800000001</v>
+        <v>9789587.6699999999</v>
       </c>
       <c r="D118" s="4">
-        <v>1604109.31</v>
+        <v>1747481.2</v>
       </c>
       <c r="E118">
-        <v>56.81</v>
+        <v>56.02</v>
       </c>
       <c r="F118" s="6">
-        <v>661895.15</v>
+        <v>1475886.12</v>
       </c>
       <c r="G118" s="9">
         <v>500992</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44197</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <v>9618656.8100000005</v>
+        <v>1603247</v>
       </c>
       <c r="D119" s="4">
-        <v>1696712.36</v>
+        <v>318248.46000000002</v>
       </c>
       <c r="E119">
-        <v>56.69</v>
+        <v>50.38</v>
       </c>
       <c r="F119" s="6">
-        <v>735883.59</v>
+        <v>235099.35</v>
       </c>
       <c r="G119" s="9">
         <v>1190</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44197</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C120">
-        <v>556531.03</v>
+        <v>618910.81000000006</v>
       </c>
       <c r="D120" s="4">
-        <v>107506.16</v>
+        <v>105201.31</v>
       </c>
       <c r="E120">
-        <v>51.77</v>
+        <v>58.83</v>
       </c>
       <c r="F120" s="6">
-        <v>129785.12</v>
+        <v>191589.11</v>
       </c>
       <c r="G120" s="9">
         <v>23215</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44197</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C121">
-        <v>9789587.6699999999</v>
+        <v>1419559.84</v>
       </c>
       <c r="D121" s="4">
-        <v>1747481.2</v>
+        <v>276211.88</v>
       </c>
       <c r="E121">
-        <v>56.02</v>
+        <v>51.39</v>
       </c>
       <c r="F121" s="6">
-        <v>1475886.12</v>
+        <v>45991.24</v>
       </c>
       <c r="G121" s="9">
         <v>222620</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44197</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C122">
-        <v>1603247</v>
+        <v>731877.74</v>
       </c>
       <c r="D122" s="4">
-        <v>318248.46000000002</v>
+        <v>174900.07</v>
       </c>
       <c r="E122">
-        <v>50.38</v>
+        <v>41.85</v>
       </c>
       <c r="F122" s="6">
-        <v>235099.35</v>
+        <v>5229.9799999999996</v>
       </c>
       <c r="G122" s="9">
         <v>11430</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44197</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C123">
-        <v>618910.81000000006</v>
+        <v>711898.01</v>
       </c>
       <c r="D123" s="4">
-        <v>105201.31</v>
+        <v>223165.74</v>
       </c>
       <c r="E123">
-        <v>58.83</v>
+        <v>31.9</v>
       </c>
       <c r="F123" s="6">
-        <v>191589.11</v>
+        <v>53475.51</v>
       </c>
       <c r="G123" s="9">
         <v>104</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44197</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C124">
-        <v>1419559.84</v>
+        <v>381189.55</v>
       </c>
       <c r="D124" s="4">
-        <v>276211.88</v>
+        <v>125870.05</v>
       </c>
       <c r="E124">
-        <v>51.39</v>
+        <v>30.28</v>
       </c>
       <c r="F124" s="6">
-        <v>45991.24</v>
+        <v>8396.73</v>
       </c>
       <c r="G124" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44197</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C125">
-        <v>731877.74</v>
+        <v>1016313.55</v>
       </c>
       <c r="D125" s="4">
-        <v>174900.07</v>
+        <v>254263.59</v>
       </c>
       <c r="E125">
-        <v>41.85</v>
+        <v>39.97</v>
       </c>
       <c r="F125" s="6">
-        <v>5229.9799999999996</v>
+        <v>84160.59</v>
       </c>
       <c r="G125" s="9">
         <v>389</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44197</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C126">
-        <v>711898.01</v>
+        <v>244677.96</v>
       </c>
       <c r="D126" s="4">
-        <v>223165.74</v>
+        <v>66269.460000000006</v>
       </c>
       <c r="E126">
-        <v>31.9</v>
+        <v>36.92</v>
       </c>
       <c r="F126" s="6">
-        <v>53475.51</v>
+        <v>30229.35</v>
       </c>
       <c r="G126" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44197</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C127">
-        <v>381189.55</v>
+        <v>29967.31</v>
       </c>
       <c r="D127" s="4">
-        <v>125870.05</v>
+        <v>8880.83</v>
       </c>
       <c r="E127">
-        <v>30.28</v>
+        <v>33.74</v>
       </c>
       <c r="F127" s="6">
-        <v>8396.73</v>
+        <v>2213.16</v>
       </c>
       <c r="G127" s="9">
         <v>88</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44197</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C128">
-        <v>1016313.55</v>
+        <v>232884.76</v>
       </c>
       <c r="D128" s="4">
-        <v>254263.59</v>
+        <v>59182.52</v>
       </c>
       <c r="E128">
-        <v>39.97</v>
+        <v>39.35</v>
       </c>
       <c r="F128" s="6">
-        <v>84160.59</v>
+        <v>33302.47</v>
       </c>
       <c r="G128" s="9">
         <v>4986</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44197</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C129">
-        <v>244677.96</v>
+        <v>867012.77</v>
       </c>
       <c r="D129" s="4">
-        <v>66269.460000000006</v>
+        <v>182186.62</v>
       </c>
       <c r="E129">
-        <v>36.92</v>
+        <v>47.59</v>
       </c>
       <c r="F129" s="6">
-        <v>30229.35</v>
+        <v>17528.05</v>
       </c>
       <c r="G129" s="9">
         <v>4652</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44197</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C130">
-        <v>29967.31</v>
+        <v>5090637.2300000004</v>
       </c>
       <c r="D130" s="4">
-        <v>8880.83</v>
+        <v>985158.23</v>
       </c>
       <c r="E130">
-        <v>33.74</v>
+        <v>51.67</v>
       </c>
       <c r="F130" s="6">
-        <v>2213.16</v>
+        <v>176766.8</v>
       </c>
       <c r="G130" s="9">
         <v>183210</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44197</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C131">
-        <v>232884.76</v>
+        <v>530029.07999999996</v>
       </c>
       <c r="D131" s="4">
-        <v>59182.52</v>
+        <v>127517.29</v>
       </c>
       <c r="E131">
-        <v>39.35</v>
+        <v>41.57</v>
       </c>
       <c r="F131" s="6">
-        <v>33302.47</v>
+        <v>2134.85</v>
       </c>
       <c r="G131" s="9">
         <v>1015</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44197</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C132">
-        <v>867012.77</v>
+        <v>234392.86</v>
       </c>
       <c r="D132" s="4">
-        <v>182186.62</v>
+        <v>48713.5</v>
       </c>
       <c r="E132">
-        <v>47.59</v>
+        <v>48.12</v>
       </c>
       <c r="F132" s="6">
-        <v>17528.05</v>
+        <v>2728.33</v>
       </c>
       <c r="G132" s="9">
         <v>346</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44197</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C133">
-        <v>5090637.2300000004</v>
+        <v>311072.46000000002</v>
       </c>
       <c r="D133" s="4">
-        <v>985158.23</v>
+        <v>59763.18</v>
       </c>
       <c r="E133">
-        <v>51.67</v>
+        <v>52.05</v>
       </c>
       <c r="F133" s="6">
-        <v>176766.8</v>
+        <v>164.85</v>
       </c>
       <c r="G133" s="9">
         <v>693</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44197</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C134">
-        <v>530029.07999999996</v>
+        <v>116803.67</v>
       </c>
       <c r="D134" s="4">
-        <v>127517.29</v>
+        <v>28319.75</v>
       </c>
       <c r="E134">
-        <v>41.57</v>
+        <v>41.24</v>
       </c>
       <c r="F134" s="6">
-        <v>2134.85</v>
+        <v>1265.25</v>
       </c>
       <c r="G134" s="9">
         <v>1013</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44197</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C135">
-        <v>234392.86</v>
+        <v>28050.799999999999</v>
       </c>
       <c r="D135" s="4">
-        <v>48713.5</v>
+        <v>7781.96</v>
       </c>
       <c r="E135">
-        <v>48.12</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="F135" s="6">
-        <v>2728.33</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="G135" s="9">
         <v>1231</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44197</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C136">
-        <v>311072.46000000002</v>
+        <v>26926.93</v>
       </c>
       <c r="D136" s="4">
-        <v>59763.18</v>
+        <v>6414.94</v>
       </c>
       <c r="E136">
-        <v>52.05</v>
+        <v>41.98</v>
       </c>
       <c r="F136" s="6">
-        <v>164.85</v>
+        <v>7517.32</v>
       </c>
       <c r="G136" s="9">
         <v>118</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44197</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C137">
-        <v>116803.67</v>
+        <v>286279.8</v>
       </c>
       <c r="D137" s="4">
-        <v>28319.75</v>
+        <v>64984.9</v>
       </c>
       <c r="E137">
-        <v>41.24</v>
+        <v>44.05</v>
       </c>
       <c r="F137" s="6">
-        <v>1265.25</v>
+        <v>13987.82</v>
       </c>
       <c r="G137" s="9">
         <v>304</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>28050.799999999999</v>
+        <v>1509456</v>
       </c>
       <c r="D138" s="4">
-        <v>7781.96</v>
+        <v>271750.2</v>
       </c>
       <c r="E138">
-        <v>36.049999999999997</v>
+        <v>55.55</v>
       </c>
       <c r="F138" s="6">
-        <v>37.090000000000003</v>
+        <v>1406.31</v>
       </c>
       <c r="G138" s="9">
         <v>10070</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>26926.93</v>
+        <v>2088584</v>
       </c>
       <c r="D139" s="4">
-        <v>6414.94</v>
+        <v>411462.1</v>
       </c>
       <c r="E139">
-        <v>41.98</v>
+        <v>50.76</v>
       </c>
       <c r="F139" s="6">
-        <v>7517.32</v>
+        <v>584728.4</v>
       </c>
       <c r="G139" s="9">
         <v>64835</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>286279.8</v>
+        <v>1373532</v>
       </c>
       <c r="D140" s="4">
-        <v>64984.9</v>
+        <v>271883.09999999998</v>
       </c>
       <c r="E140">
-        <v>44.05</v>
+        <v>50.52</v>
       </c>
       <c r="F140" s="6">
-        <v>13987.82</v>
+        <v>389413.95</v>
       </c>
       <c r="G140" s="9">
         <v>207376</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>54415294.219999999</v>
+        <v>213557.2</v>
       </c>
       <c r="D141" s="4">
-        <v>10411801.220000001</v>
+        <v>51054.04</v>
       </c>
       <c r="E141">
-        <v>52.26</v>
+        <v>41.83</v>
       </c>
       <c r="F141" s="6">
-        <v>5155997.6500000004</v>
+        <v>2380.91</v>
       </c>
       <c r="G141" s="9">
         <v>195</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44562</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>1509456</v>
+        <v>277743.8</v>
       </c>
       <c r="D142" s="4">
-        <v>271750.2</v>
+        <v>60539.59</v>
       </c>
       <c r="E142">
-        <v>55.55</v>
+        <v>45.88</v>
       </c>
       <c r="F142" s="6">
-        <v>1406.31</v>
+        <v>69078.649999999994</v>
       </c>
       <c r="G142" s="9">
         <v>16050</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44562</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>2088584</v>
+        <v>2775069</v>
       </c>
       <c r="D143" s="4">
-        <v>411462.1</v>
+        <v>513378.2</v>
       </c>
       <c r="E143">
-        <v>50.76</v>
+        <v>54.06</v>
       </c>
       <c r="F143" s="6">
-        <v>584728.4</v>
+        <v>229672.82</v>
       </c>
       <c r="G143" s="9">
         <v>1130</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44562</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>1373532</v>
+        <v>281610.09999999998</v>
       </c>
       <c r="D144" s="4">
-        <v>271883.09999999998</v>
+        <v>57151.839999999997</v>
       </c>
       <c r="E144">
-        <v>50.52</v>
+        <v>49.27</v>
       </c>
       <c r="F144" s="6">
-        <v>389413.95</v>
+        <v>8277.59</v>
       </c>
       <c r="G144" s="9">
         <v>1023</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44562</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C145">
-        <v>213557.2</v>
+        <v>2688160</v>
       </c>
       <c r="D145" s="4">
-        <v>51054.04</v>
+        <v>518256.1</v>
       </c>
       <c r="E145">
-        <v>41.83</v>
+        <v>51.87</v>
       </c>
       <c r="F145" s="6">
-        <v>2380.91</v>
+        <v>213206.31</v>
       </c>
       <c r="G145" s="9">
         <v>1727</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44562</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C146">
-        <v>277743.8</v>
+        <v>61425.07</v>
       </c>
       <c r="D146" s="4">
-        <v>60539.59</v>
+        <v>15107.8</v>
       </c>
       <c r="E146">
-        <v>45.88</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="F146" s="6">
-        <v>69078.649999999994</v>
+        <v>22741.1</v>
       </c>
       <c r="G146" s="9">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44562</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>2775069</v>
+        <v>506.91</v>
       </c>
       <c r="D147" s="4">
-        <v>513378.2</v>
+        <v>179.48</v>
       </c>
       <c r="E147">
-        <v>54.06</v>
+        <v>28.24</v>
       </c>
       <c r="F147" s="6">
-        <v>229672.82</v>
+        <v>20897.07</v>
       </c>
       <c r="G147" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44562</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C148">
-        <v>281610.09999999998</v>
+        <v>2337.77</v>
       </c>
       <c r="D148" s="4">
-        <v>57151.839999999997</v>
+        <v>477.25</v>
       </c>
       <c r="E148">
-        <v>49.27</v>
+        <v>48.98</v>
       </c>
       <c r="F148" s="6">
-        <v>8277.59</v>
+        <v>0</v>
       </c>
       <c r="G148" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44562</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>2688160</v>
+        <v>9433723</v>
       </c>
       <c r="D149" s="4">
-        <v>518256.1</v>
+        <v>1662404</v>
       </c>
       <c r="E149">
-        <v>51.87</v>
+        <v>56.75</v>
       </c>
       <c r="F149" s="6">
-        <v>213206.31</v>
+        <v>699384.4</v>
       </c>
       <c r="G149" s="9">
         <v>193318</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44562</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>61425.07</v>
+        <v>9356445</v>
       </c>
       <c r="D150" s="4">
-        <v>15107.8</v>
+        <v>1688670</v>
       </c>
       <c r="E150">
-        <v>40.659999999999997</v>
+        <v>55.41</v>
       </c>
       <c r="F150" s="6">
-        <v>22741.1</v>
+        <v>827711.57</v>
       </c>
       <c r="G150" s="9">
         <v>556510</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44562</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C151">
-        <v>506.91</v>
+        <v>561699.5</v>
       </c>
       <c r="D151" s="4">
-        <v>179.48</v>
+        <v>110927.2</v>
       </c>
       <c r="E151">
-        <v>28.24</v>
+        <v>50.64</v>
       </c>
       <c r="F151" s="6">
-        <v>20897.07</v>
+        <v>168303</v>
       </c>
       <c r="G151" s="9">
         <v>22307</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44562</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C152">
-        <v>2337.77</v>
+        <v>9526516</v>
       </c>
       <c r="D152" s="4">
-        <v>477.25</v>
+        <v>1693211</v>
       </c>
       <c r="E152">
-        <v>48.98</v>
+        <v>56.26</v>
       </c>
       <c r="F152" s="6">
-        <v>0</v>
+        <v>1314114.93</v>
       </c>
       <c r="G152" s="9">
         <v>478393</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44562</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C153">
-        <v>9433723</v>
+        <v>1788583</v>
       </c>
       <c r="D153" s="4">
-        <v>1662404</v>
+        <v>337240.7</v>
       </c>
       <c r="E153">
-        <v>56.75</v>
+        <v>53.04</v>
       </c>
       <c r="F153" s="6">
-        <v>699384.4</v>
+        <v>318552.40000000002</v>
       </c>
       <c r="G153" s="9">
         <v>1372</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44562</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C154">
-        <v>9356445</v>
+        <v>680601.59999999998</v>
       </c>
       <c r="D154" s="4">
-        <v>1688670</v>
+        <v>112320.6</v>
       </c>
       <c r="E154">
-        <v>55.41</v>
+        <v>60.59</v>
       </c>
       <c r="F154" s="6">
-        <v>827711.57</v>
+        <v>176855.43</v>
       </c>
       <c r="G154" s="9">
         <v>31492</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44562</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C155">
-        <v>561699.5</v>
+        <v>1452945</v>
       </c>
       <c r="D155" s="4">
-        <v>110927.2</v>
+        <v>270092.90000000002</v>
       </c>
       <c r="E155">
-        <v>50.64</v>
+        <v>53.79</v>
       </c>
       <c r="F155" s="6">
-        <v>168303</v>
+        <v>40154.99</v>
       </c>
       <c r="G155" s="9">
         <v>201155</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44562</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>9526516</v>
+        <v>756049.9</v>
       </c>
       <c r="D156" s="4">
-        <v>1693211</v>
+        <v>183092</v>
       </c>
       <c r="E156">
-        <v>56.26</v>
+        <v>41.29</v>
       </c>
       <c r="F156" s="6">
-        <v>1314114.93</v>
+        <v>6266.03</v>
       </c>
       <c r="G156" s="9">
         <v>7584</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44562</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C157">
-        <v>1788583</v>
+        <v>731225.8</v>
       </c>
       <c r="D157" s="4">
-        <v>337240.7</v>
+        <v>241478.6</v>
       </c>
       <c r="E157">
-        <v>53.04</v>
+        <v>30.28</v>
       </c>
       <c r="F157" s="6">
-        <v>318552.40000000002</v>
+        <v>70235.91</v>
       </c>
       <c r="G157" s="9">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44562</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C158">
-        <v>680601.59999999998</v>
+        <v>343918.8</v>
       </c>
       <c r="D158" s="4">
-        <v>112320.6</v>
+        <v>108226.8</v>
       </c>
       <c r="E158">
-        <v>60.59</v>
+        <v>31.78</v>
       </c>
       <c r="F158" s="6">
-        <v>176855.43</v>
+        <v>3050.77</v>
       </c>
       <c r="G158" s="9">
         <v>112</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44562</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C159">
-        <v>1452945</v>
+        <v>819419.2</v>
       </c>
       <c r="D159" s="4">
-        <v>270092.90000000002</v>
+        <v>214908.9</v>
       </c>
       <c r="E159">
-        <v>53.79</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="F159" s="6">
-        <v>40154.99</v>
+        <v>106115.05</v>
       </c>
       <c r="G159" s="9">
         <v>246</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44562</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C160">
-        <v>756049.9</v>
+        <v>239425.3</v>
       </c>
       <c r="D160" s="4">
-        <v>183092</v>
+        <v>64970.01</v>
       </c>
       <c r="E160">
-        <v>41.29</v>
+        <v>36.85</v>
       </c>
       <c r="F160" s="6">
-        <v>6266.03</v>
+        <v>29051.65</v>
       </c>
       <c r="G160" s="9">
         <v>114</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44562</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C161">
-        <v>731225.8</v>
+        <v>30533.59</v>
       </c>
       <c r="D161" s="4">
-        <v>241478.6</v>
+        <v>8604.19</v>
       </c>
       <c r="E161">
-        <v>30.28</v>
+        <v>35.49</v>
       </c>
       <c r="F161" s="6">
-        <v>70235.91</v>
+        <v>1014.67</v>
       </c>
       <c r="G161" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44562</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C162">
-        <v>343918.8</v>
+        <v>243730.3</v>
       </c>
       <c r="D162" s="4">
-        <v>108226.8</v>
+        <v>58195.56</v>
       </c>
       <c r="E162">
-        <v>31.78</v>
+        <v>41.88</v>
       </c>
       <c r="F162" s="6">
-        <v>3050.77</v>
+        <v>30760.560000000001</v>
       </c>
       <c r="G162" s="9">
         <v>5020</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44562</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C163">
-        <v>819419.2</v>
+        <v>744408.7</v>
       </c>
       <c r="D163" s="4">
-        <v>214908.9</v>
+        <v>168993.2</v>
       </c>
       <c r="E163">
-        <v>38.130000000000003</v>
+        <v>44.05</v>
       </c>
       <c r="F163" s="6">
-        <v>106115.05</v>
+        <v>13208.53</v>
       </c>
       <c r="G163" s="9">
         <v>3454</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44562</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C164">
-        <v>239425.3</v>
+        <v>5360169</v>
       </c>
       <c r="D164" s="4">
-        <v>64970.01</v>
+        <v>1038084</v>
       </c>
       <c r="E164">
-        <v>36.85</v>
+        <v>51.64</v>
       </c>
       <c r="F164" s="6">
-        <v>29051.65</v>
+        <v>188248.24</v>
       </c>
       <c r="G164" s="9">
         <v>175160</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44562</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C165">
-        <v>30533.59</v>
+        <v>478958</v>
       </c>
       <c r="D165" s="4">
-        <v>8604.19</v>
+        <v>118258.8</v>
       </c>
       <c r="E165">
-        <v>35.49</v>
+        <v>40.5</v>
       </c>
       <c r="F165" s="6">
-        <v>1014.67</v>
+        <v>1459.71</v>
       </c>
       <c r="G165" s="9">
         <v>449</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44562</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C166">
-        <v>243730.3</v>
+        <v>240134.5</v>
       </c>
       <c r="D166" s="4">
-        <v>58195.56</v>
+        <v>46823.47</v>
       </c>
       <c r="E166">
-        <v>41.88</v>
+        <v>51.29</v>
       </c>
       <c r="F166" s="6">
-        <v>30760.560000000001</v>
+        <v>2164.63</v>
       </c>
       <c r="G166" s="9">
         <v>418</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44562</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C167">
-        <v>744408.7</v>
+        <v>353513.3</v>
       </c>
       <c r="D167" s="4">
-        <v>168993.2</v>
+        <v>69323.95</v>
       </c>
       <c r="E167">
-        <v>44.05</v>
+        <v>50.99</v>
       </c>
       <c r="F167" s="6">
-        <v>13208.53</v>
+        <v>541.16</v>
       </c>
       <c r="G167" s="9">
         <v>748</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44562</v>
       </c>
       <c r="B168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C168">
-        <v>5360169</v>
+        <v>92601.06</v>
       </c>
       <c r="D168" s="4">
-        <v>1038084</v>
+        <v>23987.82</v>
       </c>
       <c r="E168">
-        <v>51.64</v>
+        <v>38.6</v>
       </c>
       <c r="F168" s="6">
-        <v>188248.24</v>
+        <v>1691.11</v>
       </c>
       <c r="G168" s="9">
         <v>759</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44562</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C169">
-        <v>478958</v>
+        <v>24486.03</v>
       </c>
       <c r="D169" s="4">
-        <v>118258.8</v>
+        <v>6416.45</v>
       </c>
       <c r="E169">
-        <v>40.5</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="F169" s="6">
-        <v>1459.71</v>
+        <v>160.21</v>
       </c>
       <c r="G169" s="9">
         <v>805</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44562</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C170">
-        <v>240134.5</v>
+        <v>23963.919999999998</v>
       </c>
       <c r="D170" s="4">
-        <v>46823.47</v>
+        <v>5460.59</v>
       </c>
       <c r="E170">
-        <v>51.29</v>
+        <v>43.89</v>
       </c>
       <c r="F170" s="6">
-        <v>2164.63</v>
+        <v>9648.27</v>
       </c>
       <c r="G170" s="9">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44562</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C171">
-        <v>353513.3</v>
+        <v>193943.5</v>
       </c>
       <c r="D171" s="4">
-        <v>69323.95</v>
+        <v>49741.91</v>
       </c>
       <c r="E171">
-        <v>50.99</v>
+        <v>38.99</v>
       </c>
       <c r="F171" s="6">
-        <v>541.16</v>
+        <v>15843.11</v>
       </c>
       <c r="G171" s="9">
         <v>286</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B172" t="s">
-        <v>33</v>
-      </c>
-      <c r="C172">
-        <v>92601.06</v>
-      </c>
-      <c r="D172" s="4">
-        <v>23987.82</v>
-      </c>
-      <c r="E172">
-        <v>38.6</v>
-      </c>
-      <c r="F172" s="6">
-        <v>1691.11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B173" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173">
-        <v>24486.03</v>
-      </c>
-      <c r="D173" s="4">
-        <v>6416.45</v>
-      </c>
-      <c r="E173">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="F173" s="6">
-        <v>160.21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B174" t="s">
-        <v>35</v>
-      </c>
-      <c r="C174">
-        <v>23963.919999999998</v>
-      </c>
-      <c r="D174" s="4">
-        <v>5460.59</v>
-      </c>
-      <c r="E174">
-        <v>43.89</v>
-      </c>
-      <c r="F174" s="6">
-        <v>9648.27</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B175" t="s">
-        <v>36</v>
-      </c>
-      <c r="C175">
-        <v>193943.5</v>
-      </c>
-      <c r="D175" s="4">
-        <v>49741.91</v>
-      </c>
-      <c r="E175">
-        <v>38.99</v>
-      </c>
-      <c r="F175" s="6">
-        <v>15843.11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B176" t="s">
-        <v>37</v>
-      </c>
-      <c r="C176">
-        <v>54748977</v>
-      </c>
-      <c r="D176" s="4">
-        <v>10452672</v>
-      </c>
-      <c r="E176">
-        <v>52.38</v>
-      </c>
-      <c r="F176" s="6">
-        <v>5566339.4400000004</v>
-      </c>
+      <c r="H171" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H184"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H194"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H195"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H196"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H198"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H199"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H200"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H201"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H202"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H203"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H204"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H1:H1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>